--- a/Code/Results/Cases/Case_1_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2671449627997475</v>
+        <v>0.1422613115598779</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001251677986330968</v>
+        <v>0.01416580112239885</v>
       </c>
       <c r="E2">
-        <v>0.03151735322344784</v>
+        <v>0.07163464387278218</v>
       </c>
       <c r="F2">
-        <v>2.782559441920029</v>
+        <v>3.890905671548509</v>
       </c>
       <c r="G2">
-        <v>0.0008304442749481611</v>
+        <v>0.002606369570968986</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08678058565418212</v>
+        <v>0.1600343275239027</v>
       </c>
       <c r="K2">
-        <v>3.35128508705435</v>
+        <v>2.27125686690124</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6835220836285956</v>
+        <v>0.5893527142670223</v>
       </c>
       <c r="N2">
-        <v>1.80826671413088</v>
+        <v>3.101655713739717</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2332799705164348</v>
+        <v>0.1330881548836658</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001057939776845984</v>
+        <v>0.01414850831606262</v>
       </c>
       <c r="E3">
-        <v>0.0297000018193927</v>
+        <v>0.0715947835129942</v>
       </c>
       <c r="F3">
-        <v>2.596137865033782</v>
+        <v>3.863764449682492</v>
       </c>
       <c r="G3">
-        <v>0.0008393119595598599</v>
+        <v>0.00261190013579189</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08266215736161797</v>
+        <v>0.1598344864677266</v>
       </c>
       <c r="K3">
-        <v>2.917800773383249</v>
+        <v>2.175152401469234</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6000701794080356</v>
+        <v>0.5722308427863396</v>
       </c>
       <c r="N3">
-        <v>1.834920323853126</v>
+        <v>3.113603573085427</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2127055159748181</v>
+        <v>0.1275300269704189</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0009444906815296861</v>
+        <v>0.01414105888723149</v>
       </c>
       <c r="E4">
-        <v>0.02862477129354701</v>
+        <v>0.07159654939040472</v>
       </c>
       <c r="F4">
-        <v>2.486842621130705</v>
+        <v>3.848949806636355</v>
       </c>
       <c r="G4">
-        <v>0.0008449028948263049</v>
+        <v>0.002615474439317477</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08026988831771575</v>
+        <v>0.1597749973499951</v>
       </c>
       <c r="K4">
-        <v>2.657012902443796</v>
+        <v>2.117605715954653</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.549927588465799</v>
+        <v>0.5620796055875488</v>
       </c>
       <c r="N4">
-        <v>1.853325358885229</v>
+        <v>3.121711541766402</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2043702558625711</v>
+        <v>0.1252837935248436</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0008993843560478609</v>
+        <v>0.01413882344812833</v>
       </c>
       <c r="E5">
-        <v>0.02819616071543685</v>
+        <v>0.07160387709704708</v>
       </c>
       <c r="F5">
-        <v>2.443493540587681</v>
+        <v>3.843376858906339</v>
       </c>
       <c r="G5">
-        <v>0.0008472196959798986</v>
+        <v>0.002616976041122554</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07932691089805388</v>
+        <v>0.1597666416301067</v>
       </c>
       <c r="K5">
-        <v>2.551924203525374</v>
+        <v>2.094520858690373</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5297384429004879</v>
+        <v>0.5580335793936513</v>
       </c>
       <c r="N5">
-        <v>1.861314154896561</v>
+        <v>3.125209382807199</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2029889832528511</v>
+        <v>0.1249119430415249</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000891955523373511</v>
+        <v>0.01413850069779965</v>
       </c>
       <c r="E6">
-        <v>0.0281255489713903</v>
+        <v>0.0716054932618313</v>
       </c>
       <c r="F6">
-        <v>2.436364265193802</v>
+        <v>3.842479476279706</v>
       </c>
       <c r="G6">
-        <v>0.0008476067686204674</v>
+        <v>0.002617228105942448</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07917218924738734</v>
+        <v>0.1597662134258364</v>
       </c>
       <c r="K6">
-        <v>2.534541238739877</v>
+        <v>2.090709685048864</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5263999377927675</v>
+        <v>0.5573672096352453</v>
       </c>
       <c r="N6">
-        <v>1.862669526005874</v>
+        <v>3.125801890748946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2125929130174171</v>
+        <v>0.1274996574550329</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.000943878123546682</v>
+        <v>0.01414102549480845</v>
       </c>
       <c r="E7">
-        <v>0.02861895305186302</v>
+        <v>0.07159662144511891</v>
       </c>
       <c r="F7">
-        <v>2.486253322298509</v>
+        <v>3.848872770113132</v>
       </c>
       <c r="G7">
-        <v>0.0008449339821277518</v>
+        <v>0.002615494507846865</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08025704492637686</v>
+        <v>0.1597748203492984</v>
       </c>
       <c r="K7">
-        <v>2.655591053633231</v>
+        <v>2.117292906293358</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5496543609166338</v>
+        <v>0.5620246726196285</v>
       </c>
       <c r="N7">
-        <v>1.853431150913636</v>
+        <v>3.121757930739662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2554191437531586</v>
+        <v>0.1390830481026626</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001183566020237947</v>
+        <v>0.0141591829841099</v>
       </c>
       <c r="E8">
-        <v>0.03088188128892355</v>
+        <v>0.07161545948112114</v>
       </c>
       <c r="F8">
-        <v>2.717139373939588</v>
+        <v>3.881162687617774</v>
       </c>
       <c r="G8">
-        <v>0.0008334725883584058</v>
+        <v>0.002608239552679685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08533070609293958</v>
+        <v>0.159952296199954</v>
       </c>
       <c r="K8">
-        <v>3.200599480086737</v>
+        <v>2.237815568528845</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6545002828391588</v>
+        <v>0.5833738666184161</v>
       </c>
       <c r="N8">
-        <v>1.817018302531238</v>
+        <v>3.105614919562299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3414346539890971</v>
+        <v>0.1623846637449304</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001711197898588424</v>
+        <v>0.01421979568968013</v>
       </c>
       <c r="E9">
-        <v>0.03567499366076099</v>
+        <v>0.07186025615091118</v>
       </c>
       <c r="F9">
-        <v>3.216424562653117</v>
+        <v>3.959221532880662</v>
       </c>
       <c r="G9">
-        <v>0.0008120717144493538</v>
+        <v>0.002595421952896174</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09648391673864865</v>
+        <v>0.160802518780244</v>
       </c>
       <c r="K9">
-        <v>4.320373131312806</v>
+        <v>2.485852546382773</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8703924046554334</v>
+        <v>0.6281240166269129</v>
       </c>
       <c r="N9">
-        <v>1.763004692615397</v>
+        <v>3.080098899996287</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4063265233579045</v>
+        <v>0.1798608185796127</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002157393859297585</v>
+        <v>0.01427942354151046</v>
       </c>
       <c r="E10">
-        <v>0.03946494512333842</v>
+        <v>0.07216647009961186</v>
       </c>
       <c r="F10">
-        <v>3.620240340596041</v>
+        <v>4.025648850029114</v>
       </c>
       <c r="G10">
-        <v>0.0007968720072522727</v>
+        <v>0.002586854104317937</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1056009033543859</v>
+        <v>0.1617344818778363</v>
       </c>
       <c r="K10">
-        <v>5.187346970044246</v>
+        <v>2.675366034033971</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.037767689067742</v>
+        <v>0.6627855793183173</v>
       </c>
       <c r="N10">
-        <v>1.735806339749942</v>
+        <v>3.065117672805002</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4363293986024388</v>
+        <v>0.1878884630005615</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002379734490703278</v>
+        <v>0.01430980233810608</v>
       </c>
       <c r="E11">
-        <v>0.0412606361312946</v>
+        <v>0.07233315054234168</v>
       </c>
       <c r="F11">
-        <v>3.814212651478158</v>
+        <v>4.057860559406834</v>
       </c>
       <c r="G11">
-        <v>0.0007900372006575118</v>
+        <v>0.002583138651398327</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1099974052875439</v>
+        <v>0.162225463508733</v>
       </c>
       <c r="K11">
-        <v>5.594790085308375</v>
+        <v>2.763196506233101</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.116456873682822</v>
+        <v>0.6789471564470659</v>
       </c>
       <c r="N11">
-        <v>1.726630853206188</v>
+        <v>3.059124867210613</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4477706752202977</v>
+        <v>0.1909394369628927</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002467404898389702</v>
+        <v>0.01432177186942063</v>
       </c>
       <c r="E12">
-        <v>0.04195218166926651</v>
+        <v>0.07240019889982996</v>
       </c>
       <c r="F12">
-        <v>3.889358335039816</v>
+        <v>4.070346510863146</v>
       </c>
       <c r="G12">
-        <v>0.0007874572594841478</v>
+        <v>0.002581757730208073</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1117027424222243</v>
+        <v>0.1624210427606343</v>
       </c>
       <c r="K12">
-        <v>5.751286007564829</v>
+        <v>2.796690982379573</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.14668315067442</v>
+        <v>0.6851241569895166</v>
       </c>
       <c r="N12">
-        <v>1.723663350785415</v>
+        <v>3.056974198788964</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4453028639775027</v>
+        <v>0.1902818637616832</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002448356529257012</v>
+        <v>0.01431917333502231</v>
       </c>
       <c r="E13">
-        <v>0.04180270923576224</v>
+        <v>0.07238558416013952</v>
       </c>
       <c r="F13">
-        <v>3.873095346867899</v>
+        <v>4.067644602921405</v>
       </c>
       <c r="G13">
-        <v>0.0007880125844288433</v>
+        <v>0.002582053980477953</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1113335866266212</v>
+        <v>0.1623784915783091</v>
       </c>
       <c r="K13">
-        <v>5.717477961037389</v>
+        <v>2.789466863569373</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.140153252846034</v>
+        <v>0.6837912907178492</v>
       </c>
       <c r="N13">
-        <v>1.724279081932025</v>
+        <v>3.057432098406068</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4372690159794814</v>
+        <v>0.1881392469178138</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.002386873116286381</v>
+        <v>0.01431077775620615</v>
       </c>
       <c r="E14">
-        <v>0.04131729061568379</v>
+        <v>0.07233858792780801</v>
       </c>
       <c r="F14">
-        <v>3.820359672987365</v>
+        <v>4.058882004546291</v>
       </c>
       <c r="G14">
-        <v>0.0007898248018713205</v>
+        <v>0.002583024521428023</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1101368643367167</v>
+        <v>0.1622413603291122</v>
       </c>
       <c r="K14">
-        <v>5.607618837597101</v>
+        <v>2.765947395627336</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.118934637837349</v>
+        <v>0.6794541984978224</v>
       </c>
       <c r="N14">
-        <v>1.72637625906134</v>
+        <v>3.05894554940835</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.432358775538674</v>
+        <v>0.1868282724987864</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00234968803045188</v>
+        <v>0.01430569581584251</v>
       </c>
       <c r="E15">
-        <v>0.04102150272322014</v>
+        <v>0.07231031297656187</v>
       </c>
       <c r="F15">
-        <v>3.788284858405888</v>
+        <v>4.053552218116096</v>
       </c>
       <c r="G15">
-        <v>0.0007909358099102585</v>
+        <v>0.002583622392251739</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1094092572118726</v>
+        <v>0.1621586213764559</v>
       </c>
       <c r="K15">
-        <v>5.540624792339031</v>
+        <v>2.751571705745562</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.105995390768435</v>
+        <v>0.676805032239514</v>
       </c>
       <c r="N15">
-        <v>1.727728386774672</v>
+        <v>3.059888050318634</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4043763489564327</v>
+        <v>0.1793377482551648</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.00214330910183147</v>
+        <v>0.01427750350060286</v>
       </c>
       <c r="E16">
-        <v>0.0393491376039119</v>
+        <v>0.07215612749851807</v>
       </c>
       <c r="F16">
-        <v>3.607788280895221</v>
+        <v>4.023583974224721</v>
       </c>
       <c r="G16">
-        <v>0.0007973200160986682</v>
+        <v>0.002587100569788708</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1053189789278548</v>
+        <v>0.1617037452444734</v>
       </c>
       <c r="K16">
-        <v>5.161009375079459</v>
+        <v>2.669658875732409</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.032681560114341</v>
+        <v>0.6617373353184561</v>
       </c>
       <c r="N16">
-        <v>1.736474217049576</v>
+        <v>3.065525899664365</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3873408334006285</v>
+        <v>0.1747623809600611</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.002022113284075644</v>
+        <v>0.01426104018603347</v>
       </c>
       <c r="E17">
-        <v>0.03834238582662053</v>
+        <v>0.07206854756016234</v>
       </c>
       <c r="F17">
-        <v>3.499835235233348</v>
+        <v>4.005711020478486</v>
       </c>
       <c r="G17">
-        <v>0.0008012547638281999</v>
+        <v>0.002589280856071611</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1028766606347276</v>
+        <v>0.1614418723825395</v>
       </c>
       <c r="K17">
-        <v>4.931691076189679</v>
+        <v>2.619824332191683</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9884002673565107</v>
+        <v>0.6525948967885284</v>
       </c>
       <c r="N17">
-        <v>1.742690110426722</v>
+        <v>3.069195442021041</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3775872598157122</v>
+        <v>0.1721380650389079</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001954178947408458</v>
+        <v>0.01425187729763344</v>
       </c>
       <c r="E18">
-        <v>0.03776998635169981</v>
+        <v>0.0720207516646223</v>
       </c>
       <c r="F18">
-        <v>3.438696125809429</v>
+        <v>3.995618530810134</v>
       </c>
       <c r="G18">
-        <v>0.0008035256347019878</v>
+        <v>0.002590552048394412</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1014950423501446</v>
+        <v>0.1612975578857814</v>
       </c>
       <c r="K18">
-        <v>4.800999650702124</v>
+        <v>2.591313161999381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.963166639393684</v>
+        <v>0.6473734597585619</v>
       </c>
       <c r="N18">
-        <v>1.746563086592573</v>
+        <v>3.071383431066153</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3742922646899274</v>
+        <v>0.1712507756747215</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.00193146331924865</v>
+        <v>0.01424882759075174</v>
       </c>
       <c r="E19">
-        <v>0.03757728939024219</v>
+        <v>0.07200501176066787</v>
       </c>
       <c r="F19">
-        <v>3.418152993704211</v>
+        <v>3.992233558718283</v>
       </c>
       <c r="G19">
-        <v>0.0008042959272248592</v>
+        <v>0.00259098540227921</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1010310921062398</v>
+        <v>0.1612497783561579</v>
       </c>
       <c r="K19">
-        <v>4.756947665003793</v>
+        <v>2.581685872615481</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9546617149108343</v>
+        <v>0.6456119247995957</v>
       </c>
       <c r="N19">
-        <v>1.747924208735526</v>
+        <v>3.072137520790307</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3891495845091271</v>
+        <v>0.1752486802484441</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002034826563539482</v>
+        <v>0.01426276104219149</v>
       </c>
       <c r="E20">
-        <v>0.0384488586397822</v>
+        <v>0.07207760385962203</v>
       </c>
       <c r="F20">
-        <v>3.511226960800542</v>
+        <v>4.007594205061224</v>
       </c>
       <c r="G20">
-        <v>0.0008008351273799539</v>
+        <v>0.002589046987043711</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1031342230409535</v>
+        <v>0.1614690962386049</v>
       </c>
       <c r="K20">
-        <v>4.955975300767875</v>
+        <v>2.625113522976392</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.993089260701403</v>
+        <v>0.6535642879264216</v>
       </c>
       <c r="N20">
-        <v>1.741997278218648</v>
+        <v>3.068796802784391</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4396264970652908</v>
+        <v>0.1887682854275141</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002404831812388153</v>
+        <v>0.01431323111745009</v>
       </c>
       <c r="E21">
-        <v>0.04145954537316499</v>
+        <v>0.07235228525666138</v>
       </c>
       <c r="F21">
-        <v>3.835801621643071</v>
+        <v>4.061447962481822</v>
       </c>
       <c r="G21">
-        <v>0.0007892923133126546</v>
+        <v>0.002582738744590968</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1104872320094401</v>
+        <v>0.1622813769256339</v>
       </c>
       <c r="K21">
-        <v>5.639824402368959</v>
+        <v>2.772849239542268</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.125154898278623</v>
+        <v>0.6807265590419576</v>
       </c>
       <c r="N21">
-        <v>1.725746097126816</v>
+        <v>3.058497787746049</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4730870738459032</v>
+        <v>0.1976686672283705</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002667327871428427</v>
+        <v>0.01434893010136573</v>
       </c>
       <c r="E22">
-        <v>0.04349526736365483</v>
+        <v>0.07255470975429823</v>
       </c>
       <c r="F22">
-        <v>4.057917639908396</v>
+        <v>4.098324305859109</v>
       </c>
       <c r="G22">
-        <v>0.0007817947098497517</v>
+        <v>0.002578767657764615</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1155314033317651</v>
+        <v>0.1628685352988697</v>
       </c>
       <c r="K22">
-        <v>6.099805253857028</v>
+        <v>2.870773713717142</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.213999498712639</v>
+        <v>0.6988108493298739</v>
       </c>
       <c r="N22">
-        <v>1.718107298497898</v>
+        <v>3.052458736618476</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4551817203006721</v>
+        <v>0.1929124893687515</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00252507251019729</v>
+        <v>0.01432962920543535</v>
       </c>
       <c r="E23">
-        <v>0.0424020774475089</v>
+        <v>0.07244457862745435</v>
       </c>
       <c r="F23">
-        <v>3.938377235135818</v>
+        <v>4.078488535087359</v>
       </c>
       <c r="G23">
-        <v>0.0007857932570118086</v>
+        <v>0.002580873267488423</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1128157035736308</v>
+        <v>0.1625500019206711</v>
       </c>
       <c r="K23">
-        <v>5.852989992187645</v>
+        <v>2.818383474936923</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.166327069212514</v>
+        <v>0.6891284191810314</v>
       </c>
       <c r="N23">
-        <v>1.721894032591322</v>
+        <v>3.055618430511245</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3883317231535699</v>
+        <v>0.175028805259501</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.002029073512009205</v>
+        <v>0.01426198210184459</v>
       </c>
       <c r="E24">
-        <v>0.03840070245310656</v>
+        <v>0.07207350154792103</v>
       </c>
       <c r="F24">
-        <v>3.506073897834</v>
+        <v>4.006742247694461</v>
       </c>
       <c r="G24">
-        <v>0.0008010248175863772</v>
+        <v>0.002589152664004502</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1030177093285332</v>
+        <v>0.1614567688990718</v>
       </c>
       <c r="K24">
-        <v>4.944992855338398</v>
+        <v>2.622721845861861</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9909686727970097</v>
+        <v>0.6531259182197786</v>
       </c>
       <c r="N24">
-        <v>1.7423095786678</v>
+        <v>3.068976783666557</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3179028138486899</v>
+        <v>0.1560182801415522</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001560124767978621</v>
+        <v>0.01420073760440488</v>
       </c>
       <c r="E25">
-        <v>0.03433527107242895</v>
+        <v>0.07177181721880999</v>
       </c>
       <c r="F25">
-        <v>3.075543702016006</v>
+        <v>3.936517233052967</v>
       </c>
       <c r="G25">
-        <v>0.0008177588856498986</v>
+        <v>0.002598739602500394</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09331958344432678</v>
+        <v>0.160518631032879</v>
       </c>
       <c r="K25">
-        <v>4.010716370738635</v>
+        <v>2.417484590550202</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8106469826510363</v>
+        <v>0.6157065423951948</v>
       </c>
       <c r="N25">
-        <v>1.775573644880723</v>
+        <v>3.086342036524883</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422613115598779</v>
+        <v>0.2671449627998612</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01416580112239885</v>
+        <v>0.001251677986442878</v>
       </c>
       <c r="E2">
-        <v>0.07163464387278218</v>
+        <v>0.03151735322344784</v>
       </c>
       <c r="F2">
-        <v>3.890905671548509</v>
+        <v>2.782559441920029</v>
       </c>
       <c r="G2">
-        <v>0.002606369570968986</v>
+        <v>0.0008304442750631917</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1600343275239027</v>
+        <v>0.08678058565412528</v>
       </c>
       <c r="K2">
-        <v>2.27125686690124</v>
+        <v>3.351285087054407</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5893527142670223</v>
+        <v>0.6835220836285814</v>
       </c>
       <c r="N2">
-        <v>3.101655713739717</v>
+        <v>1.808266714130852</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330881548836658</v>
+        <v>0.2332799705165769</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01414850831606262</v>
+        <v>0.001057939776828221</v>
       </c>
       <c r="E3">
-        <v>0.0715947835129942</v>
+        <v>0.02970000181938914</v>
       </c>
       <c r="F3">
-        <v>3.863764449682492</v>
+        <v>2.596137865033782</v>
       </c>
       <c r="G3">
-        <v>0.00261190013579189</v>
+        <v>0.0008393119596180647</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1598344864677266</v>
+        <v>0.08266215736166771</v>
       </c>
       <c r="K3">
-        <v>2.175152401469234</v>
+        <v>2.917800773383306</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5722308427863396</v>
+        <v>0.6000701794080356</v>
       </c>
       <c r="N3">
-        <v>3.113603573085427</v>
+        <v>1.834920323853126</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1275300269704189</v>
+        <v>0.2127055159749176</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01414105888723149</v>
+        <v>0.0009444906812960951</v>
       </c>
       <c r="E4">
-        <v>0.07159654939040472</v>
+        <v>0.02862477129354879</v>
       </c>
       <c r="F4">
-        <v>3.848949806636355</v>
+        <v>2.486842621130691</v>
       </c>
       <c r="G4">
-        <v>0.002615474439317477</v>
+        <v>0.0008449028948355505</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1597749973499951</v>
+        <v>0.08026988831761628</v>
       </c>
       <c r="K4">
-        <v>2.117605715954653</v>
+        <v>2.657012902443881</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5620796055875488</v>
+        <v>0.5499275884658275</v>
       </c>
       <c r="N4">
-        <v>3.121711541766402</v>
+        <v>1.853325358885215</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1252837935248436</v>
+        <v>0.2043702558623153</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01413882344812833</v>
+        <v>0.0008993843561819759</v>
       </c>
       <c r="E5">
-        <v>0.07160387709704708</v>
+        <v>0.0281961607154475</v>
       </c>
       <c r="F5">
-        <v>3.843376858906339</v>
+        <v>2.443493540587724</v>
       </c>
       <c r="G5">
-        <v>0.002616976041122554</v>
+        <v>0.0008472196959886795</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1597666416301067</v>
+        <v>0.07932691089811428</v>
       </c>
       <c r="K5">
-        <v>2.094520858690373</v>
+        <v>2.551924203525317</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5580335793936513</v>
+        <v>0.529738442900495</v>
       </c>
       <c r="N5">
-        <v>3.125209382807199</v>
+        <v>1.861314154896647</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1249119430415249</v>
+        <v>0.2029889832531495</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01413850069779965</v>
+        <v>0.0008919555233859455</v>
       </c>
       <c r="E6">
-        <v>0.0716054932618313</v>
+        <v>0.02812554897139385</v>
       </c>
       <c r="F6">
-        <v>3.842479476279706</v>
+        <v>2.436364265193788</v>
       </c>
       <c r="G6">
-        <v>0.002617228105942448</v>
+        <v>0.0008476067685122702</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1597662134258364</v>
+        <v>0.07917218924728786</v>
       </c>
       <c r="K6">
-        <v>2.090709685048864</v>
+        <v>2.534541238739962</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5573672096352453</v>
+        <v>0.5263999377927817</v>
       </c>
       <c r="N6">
-        <v>3.125801890748946</v>
+        <v>1.86266952600586</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1274996574550329</v>
+        <v>0.2125929130176445</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01414102549480845</v>
+        <v>0.000943878123437436</v>
       </c>
       <c r="E7">
-        <v>0.07159662144511891</v>
+        <v>0.02861895305181861</v>
       </c>
       <c r="F7">
-        <v>3.848872770113132</v>
+        <v>2.486253322298481</v>
       </c>
       <c r="G7">
-        <v>0.002615494507846865</v>
+        <v>0.0008449339821773792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1597748203492984</v>
+        <v>0.08025704492630226</v>
       </c>
       <c r="K7">
-        <v>2.117292906293358</v>
+        <v>2.655591053633174</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5620246726196285</v>
+        <v>0.5496543609166267</v>
       </c>
       <c r="N7">
-        <v>3.121757930739662</v>
+        <v>1.853431150913636</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390830481026626</v>
+        <v>0.2554191437532438</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0141591829841099</v>
+        <v>0.001183566020136695</v>
       </c>
       <c r="E8">
-        <v>0.07161545948112114</v>
+        <v>0.03088188128889335</v>
       </c>
       <c r="F8">
-        <v>3.881162687617774</v>
+        <v>2.717139373939588</v>
       </c>
       <c r="G8">
-        <v>0.002608239552679685</v>
+        <v>0.0008334725883047955</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.159952296199954</v>
+        <v>0.0853307060928401</v>
       </c>
       <c r="K8">
-        <v>2.237815568528845</v>
+        <v>3.200599480086737</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5833738666184161</v>
+        <v>0.6545002828391588</v>
       </c>
       <c r="N8">
-        <v>3.105614919562299</v>
+        <v>1.817018302531253</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1623846637449304</v>
+        <v>0.3414346539891682</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01421979568968013</v>
+        <v>0.001711197898707439</v>
       </c>
       <c r="E9">
-        <v>0.07186025615091118</v>
+        <v>0.03567499366076277</v>
       </c>
       <c r="F9">
-        <v>3.959221532880662</v>
+        <v>3.216424562653117</v>
       </c>
       <c r="G9">
-        <v>0.002595421952896174</v>
+        <v>0.0008120717145077125</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.160802518780244</v>
+        <v>0.09648391673852075</v>
       </c>
       <c r="K9">
-        <v>2.485852546382773</v>
+        <v>4.320373131312749</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6281240166269129</v>
+        <v>0.8703924046554263</v>
       </c>
       <c r="N9">
-        <v>3.080098899996287</v>
+        <v>1.763004692615411</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1798608185796127</v>
+        <v>0.4063265233580751</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01427942354151046</v>
+        <v>0.002157393859311796</v>
       </c>
       <c r="E10">
-        <v>0.07216647009961186</v>
+        <v>0.03946494512336862</v>
       </c>
       <c r="F10">
-        <v>4.025648850029114</v>
+        <v>3.620240340596013</v>
       </c>
       <c r="G10">
-        <v>0.002586854104317937</v>
+        <v>0.0007968720071852409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1617344818778363</v>
+        <v>0.1056009033544427</v>
       </c>
       <c r="K10">
-        <v>2.675366034033971</v>
+        <v>5.187346970044189</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6627855793183173</v>
+        <v>1.037767689067763</v>
       </c>
       <c r="N10">
-        <v>3.065117672805002</v>
+        <v>1.735806339749999</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1878884630005615</v>
+        <v>0.4363293986024388</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01430980233810608</v>
+        <v>0.002379734490929764</v>
       </c>
       <c r="E11">
-        <v>0.07233315054234168</v>
+        <v>0.04126063613126263</v>
       </c>
       <c r="F11">
-        <v>4.057860559406834</v>
+        <v>3.814212651478215</v>
       </c>
       <c r="G11">
-        <v>0.002583138651398327</v>
+        <v>0.0007900372006575861</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.162225463508733</v>
+        <v>0.1099974052875226</v>
       </c>
       <c r="K11">
-        <v>2.763196506233101</v>
+        <v>5.594790085308261</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6789471564470659</v>
+        <v>1.116456873682822</v>
       </c>
       <c r="N11">
-        <v>3.059124867210613</v>
+        <v>1.726630853206174</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1909394369628927</v>
+        <v>0.4477706752201556</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01432177186942063</v>
+        <v>0.002467404898151671</v>
       </c>
       <c r="E12">
-        <v>0.07240019889982996</v>
+        <v>0.04195218166922565</v>
       </c>
       <c r="F12">
-        <v>4.070346510863146</v>
+        <v>3.889358335039816</v>
       </c>
       <c r="G12">
-        <v>0.002581757730208073</v>
+        <v>0.0007874572593442248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1624210427606343</v>
+        <v>0.1117027424223096</v>
       </c>
       <c r="K12">
-        <v>2.796690982379573</v>
+        <v>5.751286007564829</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6851241569895166</v>
+        <v>1.146683150674434</v>
       </c>
       <c r="N12">
-        <v>3.056974198788964</v>
+        <v>1.723663350785415</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1902818637616832</v>
+        <v>0.4453028639772896</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01431917333502231</v>
+        <v>0.002448356529479057</v>
       </c>
       <c r="E13">
-        <v>0.07238558416013952</v>
+        <v>0.04180270923579066</v>
       </c>
       <c r="F13">
-        <v>4.067644602921405</v>
+        <v>3.873095346867871</v>
       </c>
       <c r="G13">
-        <v>0.002582053980477953</v>
+        <v>0.0007880125844275244</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1623784915783091</v>
+        <v>0.1113335866264151</v>
       </c>
       <c r="K13">
-        <v>2.789466863569373</v>
+        <v>5.717477961037332</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6837912907178492</v>
+        <v>1.140153252846048</v>
       </c>
       <c r="N13">
-        <v>3.057432098406068</v>
+        <v>1.724279081932039</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1881392469178138</v>
+        <v>0.4372690159795383</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01431077775620615</v>
+        <v>0.002386873116421384</v>
       </c>
       <c r="E14">
-        <v>0.07233858792780801</v>
+        <v>0.04131729061568201</v>
       </c>
       <c r="F14">
-        <v>4.058882004546291</v>
+        <v>3.820359672987365</v>
       </c>
       <c r="G14">
-        <v>0.002583024521428023</v>
+        <v>0.0007898248018022355</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1622413603291122</v>
+        <v>0.1101368643366243</v>
       </c>
       <c r="K14">
-        <v>2.765947395627336</v>
+        <v>5.607618837597045</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6794541984978224</v>
+        <v>1.118934637837363</v>
       </c>
       <c r="N14">
-        <v>3.05894554940835</v>
+        <v>1.726376259061311</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1868282724987864</v>
+        <v>0.4323587755386598</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01430569581584251</v>
+        <v>0.002349688030676589</v>
       </c>
       <c r="E15">
-        <v>0.07231031297656187</v>
+        <v>0.04102150272322191</v>
       </c>
       <c r="F15">
-        <v>4.053552218116096</v>
+        <v>3.788284858405916</v>
       </c>
       <c r="G15">
-        <v>0.002583622392251739</v>
+        <v>0.0007909358097834853</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1621586213764559</v>
+        <v>0.1094092572118512</v>
       </c>
       <c r="K15">
-        <v>2.751571705745562</v>
+        <v>5.540624792339031</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.676805032239514</v>
+        <v>1.105995390768456</v>
       </c>
       <c r="N15">
-        <v>3.059888050318634</v>
+        <v>1.727728386774672</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1793377482551648</v>
+        <v>0.4043763489565038</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01427750350060286</v>
+        <v>0.002143309101738211</v>
       </c>
       <c r="E16">
-        <v>0.07215612749851807</v>
+        <v>0.03934913760391368</v>
       </c>
       <c r="F16">
-        <v>4.023583974224721</v>
+        <v>3.607788280895249</v>
       </c>
       <c r="G16">
-        <v>0.002587100569788708</v>
+        <v>0.0007973200160327931</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1617037452444734</v>
+        <v>0.105318978927933</v>
       </c>
       <c r="K16">
-        <v>2.669658875732409</v>
+        <v>5.161009375079516</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6617373353184561</v>
+        <v>1.032681560114355</v>
       </c>
       <c r="N16">
-        <v>3.065525899664365</v>
+        <v>1.736474217049533</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1747623809600611</v>
+        <v>0.3873408334006285</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01426104018603347</v>
+        <v>0.002022113284079197</v>
       </c>
       <c r="E17">
-        <v>0.07206854756016234</v>
+        <v>0.03834238582662408</v>
       </c>
       <c r="F17">
-        <v>4.005711020478486</v>
+        <v>3.499835235233377</v>
       </c>
       <c r="G17">
-        <v>0.002589280856071611</v>
+        <v>0.0008012547638935787</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1614418723825395</v>
+        <v>0.102876660634621</v>
       </c>
       <c r="K17">
-        <v>2.619824332191683</v>
+        <v>4.931691076189679</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6525948967885284</v>
+        <v>0.9884002673565249</v>
       </c>
       <c r="N17">
-        <v>3.069195442021041</v>
+        <v>1.742690110426679</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1721380650389079</v>
+        <v>0.3775872598156838</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01425187729763344</v>
+        <v>0.001954178947632279</v>
       </c>
       <c r="E18">
-        <v>0.0720207516646223</v>
+        <v>0.03776998635169626</v>
       </c>
       <c r="F18">
-        <v>3.995618530810134</v>
+        <v>3.438696125809372</v>
       </c>
       <c r="G18">
-        <v>0.002590552048394412</v>
+        <v>0.0008035256347014235</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1612975578857814</v>
+        <v>0.1014950423501517</v>
       </c>
       <c r="K18">
-        <v>2.591313161999381</v>
+        <v>4.800999650702124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6473734597585619</v>
+        <v>0.9631666393936911</v>
       </c>
       <c r="N18">
-        <v>3.071383431066153</v>
+        <v>1.746563086592573</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1712507756747215</v>
+        <v>0.3742922646899274</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01424882759075174</v>
+        <v>0.00193146331925842</v>
       </c>
       <c r="E19">
-        <v>0.07200501176066787</v>
+        <v>0.0375772893902333</v>
       </c>
       <c r="F19">
-        <v>3.992233558718283</v>
+        <v>3.418152993704211</v>
       </c>
       <c r="G19">
-        <v>0.00259098540227921</v>
+        <v>0.0008042959272223257</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1612497783561579</v>
+        <v>0.1010310921063251</v>
       </c>
       <c r="K19">
-        <v>2.581685872615481</v>
+        <v>4.756947665003793</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6456119247995957</v>
+        <v>0.954661714910813</v>
       </c>
       <c r="N19">
-        <v>3.072137520790307</v>
+        <v>1.747924208735469</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1752486802484441</v>
+        <v>0.3891495845091271</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01426276104219149</v>
+        <v>0.002034826563538594</v>
       </c>
       <c r="E20">
-        <v>0.07207760385962203</v>
+        <v>0.0384488586397822</v>
       </c>
       <c r="F20">
-        <v>4.007594205061224</v>
+        <v>3.511226960800542</v>
       </c>
       <c r="G20">
-        <v>0.002589046987043711</v>
+        <v>0.000800835127445235</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1614690962386049</v>
+        <v>0.1031342230410104</v>
       </c>
       <c r="K20">
-        <v>2.625113522976392</v>
+        <v>4.955975300767648</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6535642879264216</v>
+        <v>0.993089260701403</v>
       </c>
       <c r="N20">
-        <v>3.068796802784391</v>
+        <v>1.741997278218534</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1887682854275141</v>
+        <v>0.4396264970652908</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01431323111745009</v>
+        <v>0.002404831812892638</v>
       </c>
       <c r="E21">
-        <v>0.07235228525666138</v>
+        <v>0.04145954537313123</v>
       </c>
       <c r="F21">
-        <v>4.061447962481822</v>
+        <v>3.8358016216431</v>
       </c>
       <c r="G21">
-        <v>0.002582738744590968</v>
+        <v>0.0007892923133124868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1622813769256339</v>
+        <v>0.1104872320095041</v>
       </c>
       <c r="K21">
-        <v>2.772849239542268</v>
+        <v>5.639824402368902</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6807265590419576</v>
+        <v>1.125154898278637</v>
       </c>
       <c r="N21">
-        <v>3.058497787746049</v>
+        <v>1.725746097126816</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1976686672283705</v>
+        <v>0.4730870738458748</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01434893010136573</v>
+        <v>0.002667327871048286</v>
       </c>
       <c r="E22">
-        <v>0.07255470975429823</v>
+        <v>0.04349526736363885</v>
       </c>
       <c r="F22">
-        <v>4.098324305859109</v>
+        <v>4.057917639908396</v>
       </c>
       <c r="G22">
-        <v>0.002578767657764615</v>
+        <v>0.0007817947098915503</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1628685352988697</v>
+        <v>0.1155314033317723</v>
       </c>
       <c r="K22">
-        <v>2.870773713717142</v>
+        <v>6.099805253856971</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6988108493298739</v>
+        <v>1.213999498712639</v>
       </c>
       <c r="N22">
-        <v>3.052458736618476</v>
+        <v>1.718107298497969</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1929124893687515</v>
+        <v>0.4551817203006863</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01432962920543535</v>
+        <v>0.002525072509833137</v>
       </c>
       <c r="E23">
-        <v>0.07244457862745435</v>
+        <v>0.04240207744751423</v>
       </c>
       <c r="F23">
-        <v>4.078488535087359</v>
+        <v>3.938377235135818</v>
       </c>
       <c r="G23">
-        <v>0.002580873267488423</v>
+        <v>0.0007857932570000887</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1625500019206711</v>
+        <v>0.1128157035738298</v>
       </c>
       <c r="K23">
-        <v>2.818383474936923</v>
+        <v>5.852989992187588</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6891284191810314</v>
+        <v>1.166327069212514</v>
       </c>
       <c r="N23">
-        <v>3.055618430511245</v>
+        <v>1.721894032591337</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.175028805259501</v>
+        <v>0.3883317231537688</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01426198210184459</v>
+        <v>0.002029073512236579</v>
       </c>
       <c r="E24">
-        <v>0.07207350154792103</v>
+        <v>0.03840070245309768</v>
       </c>
       <c r="F24">
-        <v>4.006742247694461</v>
+        <v>3.506073897834</v>
       </c>
       <c r="G24">
-        <v>0.002589152664004502</v>
+        <v>0.0008010248176484448</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1614567688990718</v>
+        <v>0.1030177093286682</v>
       </c>
       <c r="K24">
-        <v>2.622721845861861</v>
+        <v>4.944992855338342</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6531259182197786</v>
+        <v>0.9909686727970026</v>
       </c>
       <c r="N24">
-        <v>3.068976783666557</v>
+        <v>1.742309578667815</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1560182801415522</v>
+        <v>0.3179028138485904</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01420073760440488</v>
+        <v>0.001560124767962634</v>
       </c>
       <c r="E25">
-        <v>0.07177181721880999</v>
+        <v>0.03433527107242185</v>
       </c>
       <c r="F25">
-        <v>3.936517233052967</v>
+        <v>3.075543702015977</v>
       </c>
       <c r="G25">
-        <v>0.002598739602500394</v>
+        <v>0.0008177588856490029</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.160518631032879</v>
+        <v>0.0933195834443552</v>
       </c>
       <c r="K25">
-        <v>2.417484590550202</v>
+        <v>4.010716370738635</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6157065423951948</v>
+        <v>0.8106469826510434</v>
       </c>
       <c r="N25">
-        <v>3.086342036524883</v>
+        <v>1.77557364488078</v>
       </c>
       <c r="O25">
         <v>0</v>
